--- a/src/test/resources/workbook/单行数据测试.xlsx
+++ b/src/test/resources/workbook/单行数据测试.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>foo</t>
   </si>
@@ -39,16 +39,25 @@
   <si>
     <t>是</t>
   </si>
+  <si>
+    <t>11:5 0:5 0</t>
+  </si>
+  <si>
+    <t>55
+9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="上午/下午h&quot;时&quot;mm&quot;分&quot;ss&quot;秒&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="[$-409]yyyy\-mm\-dd\ h:mm:ss;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -653,11 +662,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -971,15 +998,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="17.125"/>
+    <col min="8" max="8" width="10.375"/>
+    <col min="9" max="10" width="9.375"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="20.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="27" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,6 +1031,32 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="G1">
+        <v>2023</v>
+      </c>
+      <c r="H1" s="2">
+        <v>45058</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="4">
+        <v>0.493634259259259</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="6">
+        <v>45058.466099537</v>
+      </c>
+      <c r="M1" s="7">
+        <v>45058.466099537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3">
+        <v>44581.9934259259</v>
       </c>
     </row>
   </sheetData>
